--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118423.7864434477</v>
+        <v>21051454.84881104</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118423.7864434477</v>
+        <v>21051454.84881104</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24201.92071938949</v>
+        <v>2960552.729847933</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24201.92071938949</v>
+        <v>2960552.729847933</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341561614.759511</v>
+        <v>51123932.07921126</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10414.70337983181</v>
+        <v>1087240.685542764</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20204.415879551</v>
+        <v>2093761.930815709</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29980.78206267553</v>
+        <v>3107489.983545949</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39813.22761703874</v>
+        <v>4099298.579495046</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49660.45100525105</v>
+        <v>5128671.153151915</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59096.24129228268</v>
+        <v>6182773.377054561</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68674.96315837956</v>
+        <v>7283599.419572764</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78268.67489612533</v>
+        <v>8380486.081542671</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88113.65184777422</v>
+        <v>9403999.915144421</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97750.926273855</v>
+        <v>10494692.23276144</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106973.6500046987</v>
+        <v>11591759.57807734</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116360.2822092149</v>
+        <v>12687953.90136192</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125777.9738071786</v>
+        <v>13784148.2246466</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135677.0438904722</v>
+        <v>14800742.83794225</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146882.4696292373</v>
+        <v>15560001.33184287</v>
       </c>
     </row>
   </sheetData>
@@ -27055,10 +27055,10 @@
         <v>59.00000001547528</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>305.0000000000564</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>139</v>
